--- a/Product_BOM.xlsx
+++ b/Product_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barra\Downloads\eaglecad-things-master\eaglecad-things-master\atmega32u4-example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barra\OneDrive\Documents\School\College\Portland State University\Classes\ECE 411\ece411-practicum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F253B53A-E9F2-4FA6-8923-4B6F49A1774E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8414EAA0-C218-47EA-9B90-AE8AFEEF728C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10630" yWindow="80" windowWidth="8530" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minimal-atmega32u4-arduino.csv" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>Samsung</t>
   </si>
@@ -259,6 +259,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Box Casing</t>
+  </si>
+  <si>
+    <t>NEMA 17</t>
+  </si>
+  <si>
+    <t>NEMA 17 Stepper motor</t>
+  </si>
+  <si>
+    <t>Actuator</t>
+  </si>
+  <si>
+    <t>1/8" 12 x 12 wood boards 25 pack</t>
+  </si>
+  <si>
+    <t>Wood Glue</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>Gorila wood Glue</t>
+  </si>
+  <si>
+    <t>Box casing adhesive</t>
   </si>
 </sst>
 </file>
@@ -622,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -1055,6 +1082,57 @@
       </c>
       <c r="F21">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>
